--- a/templates/megamarket.xlsx
+++ b/templates/megamarket.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Код товара СММ(обязательно)</t>
+    <t xml:space="preserve">Код товара СММ</t>
   </si>
   <si>
     <t xml:space="preserve">Ссылка на основное фото</t>
@@ -369,7 +369,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/templates/megamarket.xlsx
+++ b/templates/megamarket.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Код товара СММ</t>
+    <t xml:space="preserve">Код товара (арт)</t>
   </si>
   <si>
     <t xml:space="preserve">Ссылка на основное фото</t>
@@ -59,11 +59,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -86,24 +85,9 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -117,19 +101,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -157,28 +134,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,7 +207,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF002060"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -255,114 +220,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -372,68 +231,67 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="49.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="46.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="48.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="48.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="46.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="48.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="48.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
